--- a/uploads/latestExcel.xlsx
+++ b/uploads/latestExcel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJH\Desktop\포엠시스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F918B-39E1-4A10-A2E0-BD8EB9E87A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF2BCF-3C23-423A-88C8-E88070276D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="590" yWindow="700" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="-8970" yWindow="1750" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
     <sheet name="Frame" sheetId="2" r:id="rId2"/>
-    <sheet name="Detail" sheetId="3" r:id="rId3"/>
+    <sheet name="Details" sheetId="3" r:id="rId3"/>
     <sheet name="help" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -520,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,6 +568,10 @@
   </si>
   <si>
     <t>Tag Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1004,7 +1004,7 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1157,14 +1157,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" customWidth="1"/>
     <col min="4" max="6" width="12.9140625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
   </cols>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>35</v>
@@ -1189,7 +1189,7 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1197,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1220,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1312,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1335,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1356,15 +1356,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192731C-FACF-4F45-B6F0-D5DCE8990D3A}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1386,7 +1387,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1395,10 +1396,10 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1406,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1429,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1452,7 +1453,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1475,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1498,10 +1499,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1521,10 +1522,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1544,7 +1545,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1567,10 +1568,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1585,26 +1586,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="F11">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -1639,7 +1640,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
@@ -1689,7 +1690,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/latestExcel.xlsx
+++ b/uploads/latestExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJH\Desktop\포엠시스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/021eb691df50a612/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF2BCF-3C23-423A-88C8-E88070276D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8970" yWindow="1750" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192731C-FACF-4F45-B6F0-D5DCE8990D3A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/uploads/latestExcel.xlsx
+++ b/uploads/latestExcel.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/021eb691df50a612/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF2BCF-3C23-423A-88C8-E88070276D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{55DF2BCF-3C23-423A-88C8-E88070276D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FDE8A713-EF92-49A4-877F-2AA2AB23CB53}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
     <sheet name="Frame" sheetId="2" r:id="rId2"/>
     <sheet name="Details" sheetId="3" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
+    <sheet name="화재테이블" sheetId="5" r:id="rId4"/>
+    <sheet name="help" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,6 +65,48 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>실시간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블표시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>반드시</t>
         </r>
         <r>
@@ -378,20 +421,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>온도</t>
-  </si>
-  <si>
-    <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,9 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수도</t>
-  </si>
-  <si>
     <t>조명</t>
   </si>
   <si>
@@ -572,6 +605,48 @@
   </si>
   <si>
     <t>FunctionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도량</t>
+  </si>
+  <si>
+    <t>이산화탄소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력량</t>
+  </si>
+  <si>
+    <t>전력량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.20.10.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,12 +723,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -986,36 +1067,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>502</v>
@@ -1032,13 +1113,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>502</v>
@@ -1055,13 +1136,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>502</v>
@@ -1078,13 +1159,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>502</v>
@@ -1101,13 +1182,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>502</v>
@@ -1124,13 +1205,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>502</v>
@@ -1142,6 +1223,75 @@
         <v>200</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>502</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>502</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>502</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -1154,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343FFE5-7D20-42AF-B252-5A05146CBD13}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1171,33 +1321,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1217,10 +1367,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1240,10 +1390,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1263,10 +1413,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1286,10 +1436,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1309,10 +1459,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1332,10 +1482,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1350,6 +1500,75 @@
         <v>8</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
@@ -1362,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192731C-FACF-4F45-B6F0-D5DCE8990D3A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1374,46 +1593,46 @@
     <col min="2" max="2" width="11.4140625" customWidth="1"/>
     <col min="3" max="3" width="13.08203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>501</v>
@@ -1427,16 +1646,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>502</v>
@@ -1450,16 +1669,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>503</v>
@@ -1473,16 +1692,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>504</v>
@@ -1496,16 +1715,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>505</v>
@@ -1519,16 +1738,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>506</v>
@@ -1542,16 +1761,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>507</v>
@@ -1565,16 +1784,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>508</v>
@@ -1588,16 +1807,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1607,12 +1826,36 @@
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1629,68 +1872,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36D840-56CA-45BA-B4DC-61AAAEF6B4B2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44315</v>
+      </c>
+      <c r="D2">
+        <v>3242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E7402-A123-4B95-8929-DBE4D5D883DC}">
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.75" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>49</v>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
